--- a/data.xlsx
+++ b/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marto\Documents\GitHub\Subte\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$339</definedName>
     <definedName name="Subte_A_16_ABR_2014" localSheetId="0">Hoja1!$A$1:$D$339</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="471">
   <si>
     <t>hora</t>
   </si>
@@ -1142,13 +1147,319 @@
   </si>
   <si>
     <t>[ 23 , 2 ],</t>
+  </si>
+  <si>
+    <t>linea</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>[ 5, 804],</t>
+  </si>
+  <si>
+    <t>[ 6, 3578],</t>
+  </si>
+  <si>
+    <t>[ 7, 12942],</t>
+  </si>
+  <si>
+    <t>[ 8, 20279],</t>
+  </si>
+  <si>
+    <t>[ 9, 17478],</t>
+  </si>
+  <si>
+    <t>[ 10, 14234],</t>
+  </si>
+  <si>
+    <t>[ 11, 14183],</t>
+  </si>
+  <si>
+    <t>[ 12, 15560],</t>
+  </si>
+  <si>
+    <t>[ 13, 15994],</t>
+  </si>
+  <si>
+    <t>[ 14, 15186],</t>
+  </si>
+  <si>
+    <t>[ 15, 15679],</t>
+  </si>
+  <si>
+    <t>[ 16, 16761],</t>
+  </si>
+  <si>
+    <t>[ 17, 20554],</t>
+  </si>
+  <si>
+    <t>[ 18, 20825],</t>
+  </si>
+  <si>
+    <t>[ 19, 12626],</t>
+  </si>
+  <si>
+    <t>[ 20, 8863],</t>
+  </si>
+  <si>
+    <t>[ 21, 5582],</t>
+  </si>
+  <si>
+    <t>[ 22, 1769],</t>
+  </si>
+  <si>
+    <t>[ 23, 91],</t>
+  </si>
+  <si>
+    <t>[ 5, 1186],</t>
+  </si>
+  <si>
+    <t>[ 6, 5632],</t>
+  </si>
+  <si>
+    <t>[ 7, 18984],</t>
+  </si>
+  <si>
+    <t>[ 8, 30038],</t>
+  </si>
+  <si>
+    <t>[ 9, 26861],</t>
+  </si>
+  <si>
+    <t>[ 10, 22064],</t>
+  </si>
+  <si>
+    <t>[ 11, 22413],</t>
+  </si>
+  <si>
+    <t>[ 12, 24438],</t>
+  </si>
+  <si>
+    <t>[ 13, 24476],</t>
+  </si>
+  <si>
+    <t>[ 14, 23605],</t>
+  </si>
+  <si>
+    <t>[ 15, 24209],</t>
+  </si>
+  <si>
+    <t>[ 16, 26200],</t>
+  </si>
+  <si>
+    <t>[ 17, 33243],</t>
+  </si>
+  <si>
+    <t>[ 18, 35085],</t>
+  </si>
+  <si>
+    <t>[ 19, 20674],</t>
+  </si>
+  <si>
+    <t>[ 20, 14176],</t>
+  </si>
+  <si>
+    <t>[ 21, 7022],</t>
+  </si>
+  <si>
+    <t>[ 22, 2920],</t>
+  </si>
+  <si>
+    <t>[ 23, 108],</t>
+  </si>
+  <si>
+    <t>[ 5, 2711],</t>
+  </si>
+  <si>
+    <t>[ 6, 8485],</t>
+  </si>
+  <si>
+    <t>[ 7, 15198],</t>
+  </si>
+  <si>
+    <t>[ 8, 20288],</t>
+  </si>
+  <si>
+    <t>[ 9, 18197],</t>
+  </si>
+  <si>
+    <t>[ 10, 13019],</t>
+  </si>
+  <si>
+    <t>[ 11, 11542],</t>
+  </si>
+  <si>
+    <t>[ 12, 11574],</t>
+  </si>
+  <si>
+    <t>[ 13, 11934],</t>
+  </si>
+  <si>
+    <t>[ 14, 11492],</t>
+  </si>
+  <si>
+    <t>[ 15, 11750],</t>
+  </si>
+  <si>
+    <t>[ 16, 12834],</t>
+  </si>
+  <si>
+    <t>[ 17, 16216],</t>
+  </si>
+  <si>
+    <t>[ 18, 17361],</t>
+  </si>
+  <si>
+    <t>[ 19, 9592],</t>
+  </si>
+  <si>
+    <t>[ 20, 6234],</t>
+  </si>
+  <si>
+    <t>[ 21, 3696],</t>
+  </si>
+  <si>
+    <t>[ 22, 1079],</t>
+  </si>
+  <si>
+    <t>[ 23, 28],</t>
+  </si>
+  <si>
+    <t>[ 5, 670],</t>
+  </si>
+  <si>
+    <t>[ 6, 3846],</t>
+  </si>
+  <si>
+    <t>[ 7, 15036],</t>
+  </si>
+  <si>
+    <t>[ 8, 25485],</t>
+  </si>
+  <si>
+    <t>[ 9, 23880],</t>
+  </si>
+  <si>
+    <t>[ 10, 20021],</t>
+  </si>
+  <si>
+    <t>[ 11, 20288],</t>
+  </si>
+  <si>
+    <t>[ 12, 22558],</t>
+  </si>
+  <si>
+    <t>[ 13, 23292],</t>
+  </si>
+  <si>
+    <t>[ 14, 21948],</t>
+  </si>
+  <si>
+    <t>[ 15, 22861],</t>
+  </si>
+  <si>
+    <t>[ 16, 25118],</t>
+  </si>
+  <si>
+    <t>[ 17, 29904],</t>
+  </si>
+  <si>
+    <t>[ 18, 31680],</t>
+  </si>
+  <si>
+    <t>[ 19, 19941],</t>
+  </si>
+  <si>
+    <t>[ 20, 14468],</t>
+  </si>
+  <si>
+    <t>[ 21, 8905],</t>
+  </si>
+  <si>
+    <t>[ 22, 2545],</t>
+  </si>
+  <si>
+    <t>[ 23, 66],</t>
+  </si>
+  <si>
+    <t>[ 5, 500],</t>
+  </si>
+  <si>
+    <t>[ 6, 2180],</t>
+  </si>
+  <si>
+    <t>[ 7, 6540],</t>
+  </si>
+  <si>
+    <t>[ 8, 9376],</t>
+  </si>
+  <si>
+    <t>[ 9, 7746],</t>
+  </si>
+  <si>
+    <t>[ 10, 5318],</t>
+  </si>
+  <si>
+    <t>[ 11, 5532],</t>
+  </si>
+  <si>
+    <t>[ 12, 5573],</t>
+  </si>
+  <si>
+    <t>[ 13, 5177],</t>
+  </si>
+  <si>
+    <t>[ 14, 4622],</t>
+  </si>
+  <si>
+    <t>[ 15, 4922],</t>
+  </si>
+  <si>
+    <t>[ 16, 5584],</t>
+  </si>
+  <si>
+    <t>[ 17, 7772],</t>
+  </si>
+  <si>
+    <t>[ 18, 7727],</t>
+  </si>
+  <si>
+    <t>[ 19, 4129],</t>
+  </si>
+  <si>
+    <t>[ 20, 3080],</t>
+  </si>
+  <si>
+    <t>[ 21, 2116],</t>
+  </si>
+  <si>
+    <t>[ 22, 1153],</t>
+  </si>
+  <si>
+    <t>[ 23, 37],</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,16 +1488,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1195,7 +1515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,7 +1557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1269,9 +1589,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1303,6 +1624,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1478,22 +1800,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E325" sqref="E5:E325"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1510,7 +1833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1527,7 +1850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1544,7 +1867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1561,7 +1884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1578,7 +1901,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1595,7 +1918,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1612,7 +1935,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1629,7 +1952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1646,7 +1969,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1663,7 +1986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1680,7 +2003,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1697,7 +2020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1714,7 +2037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1731,7 +2054,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1748,7 +2071,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1765,7 +2088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1782,7 +2105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1799,7 +2122,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1816,7 +2139,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1833,7 +2156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1850,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1867,7 +2190,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1884,7 +2207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1901,7 +2224,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1918,7 +2241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1935,7 +2258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1952,7 +2275,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1969,7 +2292,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1986,7 +2309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.25</v>
       </c>
@@ -2003,7 +2326,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.25</v>
       </c>
@@ -2020,7 +2343,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.25</v>
       </c>
@@ -2037,7 +2360,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.25</v>
       </c>
@@ -2054,7 +2377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.25</v>
       </c>
@@ -2071,7 +2394,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.25</v>
       </c>
@@ -2088,7 +2411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.25</v>
       </c>
@@ -2105,7 +2428,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.25</v>
       </c>
@@ -2122,7 +2445,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.25</v>
       </c>
@@ -2139,7 +2462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.25</v>
       </c>
@@ -2156,7 +2479,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.25</v>
       </c>
@@ -2173,7 +2496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.25</v>
       </c>
@@ -2190,7 +2513,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.25</v>
       </c>
@@ -2207,7 +2530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.25</v>
       </c>
@@ -2224,7 +2547,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.25</v>
       </c>
@@ -2241,7 +2564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.25</v>
       </c>
@@ -2258,7 +2581,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.25</v>
       </c>
@@ -2275,7 +2598,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.25</v>
       </c>
@@ -2292,7 +2615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2309,7 +2632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2326,7 +2649,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2343,7 +2666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2360,7 +2683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2377,7 +2700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2394,7 +2717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2411,7 +2734,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2428,7 +2751,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2445,7 +2768,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2462,7 +2785,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2479,7 +2802,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2496,7 +2819,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2513,7 +2836,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2530,7 +2853,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2547,7 +2870,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2564,7 +2887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2581,7 +2904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -2598,7 +2921,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2615,7 +2938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2632,7 +2955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2649,7 +2972,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2666,7 +2989,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2683,7 +3006,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2700,7 +3023,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2717,7 +3040,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2734,7 +3057,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2751,7 +3074,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2768,7 +3091,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2785,7 +3108,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2802,7 +3125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2819,7 +3142,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2836,7 +3159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2853,7 +3176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2870,7 +3193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2887,7 +3210,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -2904,7 +3227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.375</v>
       </c>
@@ -2921,7 +3244,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.375</v>
       </c>
@@ -2938,7 +3261,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.375</v>
       </c>
@@ -2955,7 +3278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.375</v>
       </c>
@@ -2972,7 +3295,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.375</v>
       </c>
@@ -2989,7 +3312,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.375</v>
       </c>
@@ -3006,7 +3329,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.375</v>
       </c>
@@ -3023,7 +3346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.375</v>
       </c>
@@ -3040,7 +3363,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.375</v>
       </c>
@@ -3057,7 +3380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.375</v>
       </c>
@@ -3074,7 +3397,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.375</v>
       </c>
@@ -3091,7 +3414,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.375</v>
       </c>
@@ -3108,7 +3431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.375</v>
       </c>
@@ -3125,7 +3448,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.375</v>
       </c>
@@ -3142,7 +3465,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0.375</v>
       </c>
@@ -3159,7 +3482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0.375</v>
       </c>
@@ -3176,7 +3499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0.375</v>
       </c>
@@ -3193,7 +3516,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0.375</v>
       </c>
@@ -3210,7 +3533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3227,7 +3550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3244,7 +3567,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3261,7 +3584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3278,7 +3601,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3295,7 +3618,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3312,7 +3635,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3329,7 +3652,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3346,7 +3669,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3363,7 +3686,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3380,7 +3703,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3397,7 +3720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3414,7 +3737,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3431,7 +3754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3448,7 +3771,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3465,7 +3788,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3482,7 +3805,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3499,7 +3822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -3516,7 +3839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3533,7 +3856,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3550,7 +3873,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3567,7 +3890,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3584,7 +3907,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3601,7 +3924,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3618,7 +3941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3635,7 +3958,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3652,7 +3975,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3669,7 +3992,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3686,7 +4009,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3703,7 +4026,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3720,7 +4043,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3737,7 +4060,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3754,7 +4077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3771,7 +4094,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3788,7 +4111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3805,7 +4128,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -3822,7 +4145,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0.5</v>
       </c>
@@ -3839,7 +4162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0.5</v>
       </c>
@@ -3856,7 +4179,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0.5</v>
       </c>
@@ -3873,7 +4196,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0.5</v>
       </c>
@@ -3890,7 +4213,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0.5</v>
       </c>
@@ -3907,7 +4230,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0.5</v>
       </c>
@@ -3924,7 +4247,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0.5</v>
       </c>
@@ -3941,7 +4264,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0.5</v>
       </c>
@@ -3958,7 +4281,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0.5</v>
       </c>
@@ -3975,7 +4298,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0.5</v>
       </c>
@@ -3992,7 +4315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0.5</v>
       </c>
@@ -4009,7 +4332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0.5</v>
       </c>
@@ -4026,7 +4349,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0.5</v>
       </c>
@@ -4043,7 +4366,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0.5</v>
       </c>
@@ -4060,7 +4383,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>0.5</v>
       </c>
@@ -4077,7 +4400,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0.5</v>
       </c>
@@ -4094,7 +4417,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0.5</v>
       </c>
@@ -4111,7 +4434,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0.5</v>
       </c>
@@ -4128,7 +4451,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4145,7 +4468,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4162,7 +4485,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4179,7 +4502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4196,7 +4519,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4213,7 +4536,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4230,7 +4553,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4247,7 +4570,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4264,7 +4587,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4281,7 +4604,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4298,7 +4621,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4315,7 +4638,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4332,7 +4655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4349,7 +4672,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4366,7 +4689,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4383,7 +4706,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4400,7 +4723,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4417,7 +4740,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -4434,7 +4757,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4451,7 +4774,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4468,7 +4791,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4485,7 +4808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4502,7 +4825,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4519,7 +4842,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4536,7 +4859,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4553,7 +4876,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4570,7 +4893,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4587,7 +4910,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4604,7 +4927,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4621,7 +4944,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4638,7 +4961,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4655,7 +4978,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4672,7 +4995,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4689,7 +5012,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4706,7 +5029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4723,7 +5046,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -4740,7 +5063,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0.625</v>
       </c>
@@ -4757,7 +5080,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>0.625</v>
       </c>
@@ -4774,7 +5097,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0.625</v>
       </c>
@@ -4791,7 +5114,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0.625</v>
       </c>
@@ -4808,7 +5131,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0.625</v>
       </c>
@@ -4825,7 +5148,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0.625</v>
       </c>
@@ -4842,7 +5165,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0.625</v>
       </c>
@@ -4859,7 +5182,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>0.625</v>
       </c>
@@ -4876,7 +5199,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>0.625</v>
       </c>
@@ -4893,7 +5216,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>0.625</v>
       </c>
@@ -4910,7 +5233,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>0.625</v>
       </c>
@@ -4927,7 +5250,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>0.625</v>
       </c>
@@ -4944,7 +5267,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>0.625</v>
       </c>
@@ -4961,7 +5284,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>0.625</v>
       </c>
@@ -4978,7 +5301,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>0.625</v>
       </c>
@@ -4995,7 +5318,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>0.625</v>
       </c>
@@ -5012,7 +5335,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>0.625</v>
       </c>
@@ -5029,7 +5352,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0.625</v>
       </c>
@@ -5046,7 +5369,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5063,7 +5386,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5080,7 +5403,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5097,7 +5420,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5114,7 +5437,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5131,7 +5454,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5148,7 +5471,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5165,7 +5488,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5182,7 +5505,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5199,7 +5522,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5216,7 +5539,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5233,7 +5556,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5250,7 +5573,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5267,7 +5590,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5284,7 +5607,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5301,7 +5624,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5318,7 +5641,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5335,7 +5658,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -5352,7 +5675,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5369,7 +5692,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5386,7 +5709,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5403,7 +5726,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5420,7 +5743,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5437,7 +5760,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5454,7 +5777,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5471,7 +5794,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5488,7 +5811,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5505,7 +5828,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5522,7 +5845,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5539,7 +5862,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5556,7 +5879,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5573,7 +5896,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5590,7 +5913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5607,7 +5930,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5624,7 +5947,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5641,7 +5964,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -5658,7 +5981,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0.75</v>
       </c>
@@ -5675,7 +5998,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0.75</v>
       </c>
@@ -5692,7 +6015,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0.75</v>
       </c>
@@ -5709,7 +6032,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>0.75</v>
       </c>
@@ -5726,7 +6049,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0.75</v>
       </c>
@@ -5743,7 +6066,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>0.75</v>
       </c>
@@ -5760,7 +6083,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>0.75</v>
       </c>
@@ -5777,7 +6100,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0.75</v>
       </c>
@@ -5794,7 +6117,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>0.75</v>
       </c>
@@ -5811,7 +6134,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>0.75</v>
       </c>
@@ -5828,7 +6151,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0.75</v>
       </c>
@@ -5845,7 +6168,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0.75</v>
       </c>
@@ -5862,7 +6185,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0.75</v>
       </c>
@@ -5879,7 +6202,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>0.75</v>
       </c>
@@ -5896,7 +6219,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0.75</v>
       </c>
@@ -5913,7 +6236,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>0.75</v>
       </c>
@@ -5930,7 +6253,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>0.75</v>
       </c>
@@ -5947,7 +6270,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0.75</v>
       </c>
@@ -5964,7 +6287,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -5981,7 +6304,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -5998,7 +6321,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6015,7 +6338,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6032,7 +6355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6049,7 +6372,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6066,7 +6389,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6083,7 +6406,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6100,7 +6423,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6117,7 +6440,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6134,7 +6457,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6151,7 +6474,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6168,7 +6491,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6185,7 +6508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6202,7 +6525,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6219,7 +6542,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6236,7 +6559,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6253,7 +6576,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -6270,7 +6593,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6287,7 +6610,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6304,7 +6627,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6321,7 +6644,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6338,7 +6661,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6355,7 +6678,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6372,7 +6695,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6389,7 +6712,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6406,7 +6729,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6423,7 +6746,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6440,7 +6763,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6457,7 +6780,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6474,7 +6797,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6491,7 +6814,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6508,7 +6831,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6525,7 +6848,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6542,7 +6865,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6559,7 +6882,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -6576,7 +6899,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>0.875</v>
       </c>
@@ -6593,7 +6916,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>0.875</v>
       </c>
@@ -6610,7 +6933,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>0.875</v>
       </c>
@@ -6627,7 +6950,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>0.875</v>
       </c>
@@ -6644,7 +6967,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>0.875</v>
       </c>
@@ -6661,7 +6984,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>0.875</v>
       </c>
@@ -6678,7 +7001,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>0.875</v>
       </c>
@@ -6695,7 +7018,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>0.875</v>
       </c>
@@ -6712,7 +7035,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>0.875</v>
       </c>
@@ -6729,7 +7052,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>0.875</v>
       </c>
@@ -6746,7 +7069,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>0.875</v>
       </c>
@@ -6763,7 +7086,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>0.875</v>
       </c>
@@ -6780,7 +7103,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>0.875</v>
       </c>
@@ -6797,7 +7120,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>0.875</v>
       </c>
@@ -6814,7 +7137,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>0.875</v>
       </c>
@@ -6831,7 +7154,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>0.875</v>
       </c>
@@ -6848,7 +7171,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>0.875</v>
       </c>
@@ -6865,7 +7188,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>0.875</v>
       </c>
@@ -6882,7 +7205,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6899,7 +7222,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6916,7 +7239,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6933,7 +7256,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6950,7 +7273,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6967,7 +7290,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -6984,7 +7307,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7001,7 +7324,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7018,7 +7341,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7035,7 +7358,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7052,7 +7375,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7069,7 +7392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7086,7 +7409,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7103,7 +7426,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7120,7 +7443,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7137,7 +7460,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7154,7 +7477,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7171,7 +7494,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -7188,7 +7511,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -7205,7 +7528,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -7222,7 +7545,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -7239,7 +7562,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -7263,24 +7586,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:D96"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>804.49054464852031</v>
+      </c>
+      <c r="C2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" s="3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3578.3235946523851</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>12941.867887260787</v>
+      </c>
+      <c r="C4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="3">
+        <v>12942</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>20279.320681757665</v>
+      </c>
+      <c r="C5" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="3">
+        <v>20279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17478.301089977802</v>
+      </c>
+      <c r="C6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="3">
+        <v>17478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>14233.539778158556</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>14182.761025265921</v>
+      </c>
+      <c r="C8" t="s">
+        <v>370</v>
+      </c>
+      <c r="D8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>15559.600511342509</v>
+      </c>
+      <c r="C9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="3">
+        <v>15560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>15994.369305435641</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="3">
+        <v>15994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15185.73464239969</v>
+      </c>
+      <c r="C11" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" s="3">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15678.836426241898</v>
+      </c>
+      <c r="C12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="3">
+        <v>15679</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3">
+        <v>16760.907956948104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3">
+        <v>20554.37280577526</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>388</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" s="3">
+        <v>20825.12972582068</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3">
+        <v>12626.318909746415</v>
+      </c>
+      <c r="C16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D16" t="s">
+        <v>390</v>
+      </c>
+      <c r="E16" s="3">
+        <v>12626</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" s="3">
+        <v>8863.3056393483221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5582.3311583795266</v>
+      </c>
+      <c r="C18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>392</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1769.2042389041997</v>
+      </c>
+      <c r="C19" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3">
+        <v>91.053728136365692</v>
+      </c>
+      <c r="C20" t="s">
+        <v>370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>394</v>
+      </c>
+      <c r="E20" s="3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1186.2724962569507</v>
+      </c>
+      <c r="C21" t="s">
+        <v>371</v>
+      </c>
+      <c r="D21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5632.3548553429691</v>
+      </c>
+      <c r="C22" t="s">
+        <v>371</v>
+      </c>
+      <c r="D22" t="s">
+        <v>396</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3">
+        <v>18984.040476294933</v>
+      </c>
+      <c r="C23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E23" s="3">
+        <v>18984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="3">
+        <v>30037.551615559983</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E24" s="3">
+        <v>30038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3">
+        <v>26860.577553372113</v>
+      </c>
+      <c r="C25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="3">
+        <v>26861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3">
+        <v>22064.468838062221</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>22064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3">
+        <v>22412.6102371405</v>
+      </c>
+      <c r="C27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" t="s">
+        <v>401</v>
+      </c>
+      <c r="E27" s="3">
+        <v>22413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>12</v>
+      </c>
+      <c r="B28" s="3">
+        <v>24438.076228093618</v>
+      </c>
+      <c r="C28" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="3">
+        <v>24438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3">
+        <v>24476.224878092165</v>
+      </c>
+      <c r="C29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" s="3">
+        <v>24476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3">
+        <v>23604.555329052269</v>
+      </c>
+      <c r="C30" t="s">
+        <v>371</v>
+      </c>
+      <c r="D30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" s="3">
+        <v>23605</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>15</v>
+      </c>
+      <c r="B31" s="3">
+        <v>24209.418153953775</v>
+      </c>
+      <c r="C31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E31" s="3">
+        <v>24209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3">
+        <v>26200.067621791208</v>
+      </c>
+      <c r="C32" t="s">
+        <v>371</v>
+      </c>
+      <c r="D32" t="s">
+        <v>406</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>17</v>
+      </c>
+      <c r="B33" s="3">
+        <v>33243.471352644592</v>
+      </c>
+      <c r="C33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D33" t="s">
+        <v>407</v>
+      </c>
+      <c r="E33" s="3">
+        <v>33243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" s="3">
+        <v>35085.200118041183</v>
+      </c>
+      <c r="C34" t="s">
+        <v>371</v>
+      </c>
+      <c r="D34" t="s">
+        <v>408</v>
+      </c>
+      <c r="E34" s="3">
+        <v>35085</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>19</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20674.076315465154</v>
+      </c>
+      <c r="C35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D35" t="s">
+        <v>409</v>
+      </c>
+      <c r="E35" s="3">
+        <v>20674</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36" s="3">
+        <v>14175.656690524607</v>
+      </c>
+      <c r="C36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" t="s">
+        <v>410</v>
+      </c>
+      <c r="E36" s="3">
+        <v>14176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7022.0883235275742</v>
+      </c>
+      <c r="C37" t="s">
+        <v>371</v>
+      </c>
+      <c r="D37" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="3">
+        <v>7022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2919.8935346529197</v>
+      </c>
+      <c r="C38" t="s">
+        <v>371</v>
+      </c>
+      <c r="D38" t="s">
+        <v>412</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>23</v>
+      </c>
+      <c r="B39" s="3">
+        <v>107.88722394755003</v>
+      </c>
+      <c r="C39" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" t="s">
+        <v>413</v>
+      </c>
+      <c r="E39" s="3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2711.1348023283872</v>
+      </c>
+      <c r="C40" t="s">
+        <v>372</v>
+      </c>
+      <c r="D40" t="s">
+        <v>414</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>8485.2138802620957</v>
+      </c>
+      <c r="C41" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" t="s">
+        <v>415</v>
+      </c>
+      <c r="E41" s="3">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="3">
+        <v>15197.649541149189</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" t="s">
+        <v>416</v>
+      </c>
+      <c r="E42" s="3">
+        <v>15198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>8</v>
+      </c>
+      <c r="B43" s="3">
+        <v>20288.000197426598</v>
+      </c>
+      <c r="C43" t="s">
+        <v>372</v>
+      </c>
+      <c r="D43" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" s="3">
+        <v>20288</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" s="3">
+        <v>18196.595916304486</v>
+      </c>
+      <c r="C44" t="s">
+        <v>372</v>
+      </c>
+      <c r="D44" t="s">
+        <v>418</v>
+      </c>
+      <c r="E44" s="3">
+        <v>18197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10</v>
+      </c>
+      <c r="B45" s="3">
+        <v>13018.724357457902</v>
+      </c>
+      <c r="C45" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" t="s">
+        <v>419</v>
+      </c>
+      <c r="E45" s="3">
+        <v>13019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>11</v>
+      </c>
+      <c r="B46" s="3">
+        <v>11542.099730324022</v>
+      </c>
+      <c r="C46" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46" t="s">
+        <v>420</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11542</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="B47" s="3">
+        <v>11573.825396350763</v>
+      </c>
+      <c r="C47" t="s">
+        <v>372</v>
+      </c>
+      <c r="D47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11574</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" s="3">
+        <v>11933.995018485673</v>
+      </c>
+      <c r="C48" t="s">
+        <v>372</v>
+      </c>
+      <c r="D48" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49" s="3">
+        <v>11492.030108729863</v>
+      </c>
+      <c r="C49" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" t="s">
+        <v>423</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50" s="3">
+        <v>11750.379549798257</v>
+      </c>
+      <c r="C50" t="s">
+        <v>372</v>
+      </c>
+      <c r="D50" t="s">
+        <v>424</v>
+      </c>
+      <c r="E50" s="3">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51" s="3">
+        <v>12833.89626911746</v>
+      </c>
+      <c r="C51" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" t="s">
+        <v>425</v>
+      </c>
+      <c r="E51" s="3">
+        <v>12834</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" s="3">
+        <v>16215.501879582162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>372</v>
+      </c>
+      <c r="D52" t="s">
+        <v>426</v>
+      </c>
+      <c r="E52" s="3">
+        <v>16216</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>18</v>
+      </c>
+      <c r="B53" s="3">
+        <v>17361.184261149436</v>
+      </c>
+      <c r="C53" t="s">
+        <v>372</v>
+      </c>
+      <c r="D53" t="s">
+        <v>427</v>
+      </c>
+      <c r="E53" s="3">
+        <v>17361</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54" s="3">
+        <v>9591.7095186483457</v>
+      </c>
+      <c r="C54" t="s">
+        <v>372</v>
+      </c>
+      <c r="D54" t="s">
+        <v>428</v>
+      </c>
+      <c r="E54" s="3">
+        <v>9592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>20</v>
+      </c>
+      <c r="B55" s="3">
+        <v>6233.5540667321566</v>
+      </c>
+      <c r="C55" t="s">
+        <v>372</v>
+      </c>
+      <c r="D55" t="s">
+        <v>429</v>
+      </c>
+      <c r="E55" s="3">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>21</v>
+      </c>
+      <c r="B56" s="3">
+        <v>3695.7353550173525</v>
+      </c>
+      <c r="C56" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" t="s">
+        <v>430</v>
+      </c>
+      <c r="E56" s="3">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1078.7244043754663</v>
+      </c>
+      <c r="C57" t="s">
+        <v>372</v>
+      </c>
+      <c r="D57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>23</v>
+      </c>
+      <c r="B58" s="3">
+        <v>28.141203838857511</v>
+      </c>
+      <c r="C58" t="s">
+        <v>372</v>
+      </c>
+      <c r="D58" t="s">
+        <v>432</v>
+      </c>
+      <c r="E58" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" s="3">
+        <v>670.18789925404724</v>
+      </c>
+      <c r="C59" t="s">
+        <v>373</v>
+      </c>
+      <c r="D59" t="s">
+        <v>433</v>
+      </c>
+      <c r="E59" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" s="3">
+        <v>3846.0111575202004</v>
+      </c>
+      <c r="C60" t="s">
+        <v>373</v>
+      </c>
+      <c r="D60" t="s">
+        <v>434</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3">
+        <v>15035.781170272889</v>
+      </c>
+      <c r="C61" t="s">
+        <v>373</v>
+      </c>
+      <c r="D61" t="s">
+        <v>435</v>
+      </c>
+      <c r="E61" s="3">
+        <v>15036</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" s="3">
+        <v>25484.89094052052</v>
+      </c>
+      <c r="C62" t="s">
+        <v>373</v>
+      </c>
+      <c r="D62" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" s="3">
+        <v>25485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" s="3">
+        <v>23880.039122519702</v>
+      </c>
+      <c r="C63" t="s">
+        <v>373</v>
+      </c>
+      <c r="D63" t="s">
+        <v>437</v>
+      </c>
+      <c r="E63" s="3">
+        <v>23880</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" s="3">
+        <v>20020.908696531154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" t="s">
+        <v>438</v>
+      </c>
+      <c r="E64" s="3">
+        <v>20021</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" s="3">
+        <v>20287.858427164276</v>
+      </c>
+      <c r="C65" t="s">
+        <v>373</v>
+      </c>
+      <c r="D65" t="s">
+        <v>439</v>
+      </c>
+      <c r="E65" s="3">
+        <v>20288</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" s="3">
+        <v>22557.744998745697</v>
+      </c>
+      <c r="C66" t="s">
+        <v>373</v>
+      </c>
+      <c r="D66" t="s">
+        <v>440</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22558</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3">
+        <v>23292.310635706432</v>
+      </c>
+      <c r="C67" t="s">
+        <v>373</v>
+      </c>
+      <c r="D67" t="s">
+        <v>441</v>
+      </c>
+      <c r="E67" s="3">
+        <v>23292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3">
+        <v>21948.048560286599</v>
+      </c>
+      <c r="C68" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" t="s">
+        <v>442</v>
+      </c>
+      <c r="E68" s="3">
+        <v>21948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69" s="3">
+        <v>22861.423799626649</v>
+      </c>
+      <c r="C69" t="s">
+        <v>373</v>
+      </c>
+      <c r="D69" t="s">
+        <v>443</v>
+      </c>
+      <c r="E69" s="3">
+        <v>22861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" s="3">
+        <v>25118.417008859862</v>
+      </c>
+      <c r="C70" t="s">
+        <v>373</v>
+      </c>
+      <c r="D70" t="s">
+        <v>444</v>
+      </c>
+      <c r="E70" s="3">
+        <v>25118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" s="3">
+        <v>29903.680579654643</v>
+      </c>
+      <c r="C71" t="s">
+        <v>373</v>
+      </c>
+      <c r="D71" t="s">
+        <v>445</v>
+      </c>
+      <c r="E71" s="3">
+        <v>29904</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" s="3">
+        <v>31679.784077080512</v>
+      </c>
+      <c r="C72" t="s">
+        <v>373</v>
+      </c>
+      <c r="D72" t="s">
+        <v>446</v>
+      </c>
+      <c r="E72" s="3">
+        <v>31680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>19</v>
+      </c>
+      <c r="B73" s="3">
+        <v>19940.87212826547</v>
+      </c>
+      <c r="C73" t="s">
+        <v>373</v>
+      </c>
+      <c r="D73" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" s="3">
+        <v>19941</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" s="3">
+        <v>14468.162850094486</v>
+      </c>
+      <c r="C74" t="s">
+        <v>373</v>
+      </c>
+      <c r="D74" t="s">
+        <v>448</v>
+      </c>
+      <c r="E74" s="3">
+        <v>14468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>21</v>
+      </c>
+      <c r="B75" s="3">
+        <v>8905.2933706753956</v>
+      </c>
+      <c r="C75" t="s">
+        <v>373</v>
+      </c>
+      <c r="D75" t="s">
+        <v>449</v>
+      </c>
+      <c r="E75" s="3">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>22</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2544.947956735004</v>
+      </c>
+      <c r="C76" t="s">
+        <v>373</v>
+      </c>
+      <c r="D76" t="s">
+        <v>450</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>23</v>
+      </c>
+      <c r="B77" s="3">
+        <v>65.788580501855833</v>
+      </c>
+      <c r="C77" t="s">
+        <v>373</v>
+      </c>
+      <c r="D77" t="s">
+        <v>451</v>
+      </c>
+      <c r="E77" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78" s="3">
+        <v>500.36772543142956</v>
+      </c>
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" t="s">
+        <v>452</v>
+      </c>
+      <c r="E78" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2180.3855483157195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s">
+        <v>453</v>
+      </c>
+      <c r="E79" s="3">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="B80" s="3">
+        <v>6540.0262139847127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>374</v>
+      </c>
+      <c r="D80" t="s">
+        <v>454</v>
+      </c>
+      <c r="E80" s="3">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>8</v>
+      </c>
+      <c r="B81" s="3">
+        <v>9375.7401523330809</v>
+      </c>
+      <c r="C81" t="s">
+        <v>374</v>
+      </c>
+      <c r="D81" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9376</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>9</v>
+      </c>
+      <c r="B82" s="3">
+        <v>7746.3347069947704</v>
+      </c>
+      <c r="C82" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" t="s">
+        <v>456</v>
+      </c>
+      <c r="E82" s="3">
+        <v>7746</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10</v>
+      </c>
+      <c r="B83" s="3">
+        <v>5318.1674264350286</v>
+      </c>
+      <c r="C83" t="s">
+        <v>374</v>
+      </c>
+      <c r="D83" t="s">
+        <v>457</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>11</v>
+      </c>
+      <c r="B84" s="3">
+        <v>5532.1246114443256</v>
+      </c>
+      <c r="C84" t="s">
+        <v>374</v>
+      </c>
+      <c r="D84" t="s">
+        <v>458</v>
+      </c>
+      <c r="E84" s="3">
+        <v>5532</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3">
+        <v>5573.2941917469643</v>
+      </c>
+      <c r="C85" t="s">
+        <v>374</v>
+      </c>
+      <c r="D85" t="s">
+        <v>459</v>
+      </c>
+      <c r="E85" s="3">
+        <v>5573</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86" s="3">
+        <v>5177.0759610511541</v>
+      </c>
+      <c r="C86" t="s">
+        <v>374</v>
+      </c>
+      <c r="D86" t="s">
+        <v>460</v>
+      </c>
+      <c r="E86" s="3">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87" s="3">
+        <v>4622.0275268707819</v>
+      </c>
+      <c r="C87" t="s">
+        <v>374</v>
+      </c>
+      <c r="D87" t="s">
+        <v>461</v>
+      </c>
+      <c r="E87" s="3">
+        <v>4622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>15</v>
+      </c>
+      <c r="B88" s="3">
+        <v>4922.3115128594945</v>
+      </c>
+      <c r="C88" t="s">
+        <v>374</v>
+      </c>
+      <c r="D88" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" s="3">
+        <v>4922</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>16</v>
+      </c>
+      <c r="B89" s="3">
+        <v>5584.0950771831476</v>
+      </c>
+      <c r="C89" t="s">
+        <v>374</v>
+      </c>
+      <c r="D89" t="s">
+        <v>463</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5584</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" s="3">
+        <v>7771.8023644375098</v>
+      </c>
+      <c r="C90" t="s">
+        <v>374</v>
+      </c>
+      <c r="D90" t="s">
+        <v>464</v>
+      </c>
+      <c r="E90" s="3">
+        <v>7772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" s="3">
+        <v>7727.4810394649357</v>
+      </c>
+      <c r="C91" t="s">
+        <v>374</v>
+      </c>
+      <c r="D91" t="s">
+        <v>465</v>
+      </c>
+      <c r="E91" s="3">
+        <v>7727</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>19</v>
+      </c>
+      <c r="B92" s="3">
+        <v>4129.0017380620166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>374</v>
+      </c>
+      <c r="D92" t="s">
+        <v>466</v>
+      </c>
+      <c r="E92" s="3">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>20</v>
+      </c>
+      <c r="B93" s="3">
+        <v>3080.434765600352</v>
+      </c>
+      <c r="C93" t="s">
+        <v>374</v>
+      </c>
+      <c r="D93" t="s">
+        <v>467</v>
+      </c>
+      <c r="E93" s="3">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>21</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2115.7551894132876</v>
+      </c>
+      <c r="C94" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>468</v>
+      </c>
+      <c r="E94" s="3">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>22</v>
+      </c>
+      <c r="B95" s="3">
+        <v>1152.6223788309626</v>
+      </c>
+      <c r="C95" t="s">
+        <v>374</v>
+      </c>
+      <c r="D95" t="s">
+        <v>469</v>
+      </c>
+      <c r="E95" s="3">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>23</v>
+      </c>
+      <c r="B96" s="3">
+        <v>36.927513227513231</v>
+      </c>
+      <c r="C96" t="s">
+        <v>374</v>
+      </c>
+      <c r="D96" t="s">
+        <v>470</v>
+      </c>
+      <c r="E96" s="3">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
